--- a/presupuestos/ejemplo1/presupuesto_APU.xlsx
+++ b/presupuestos/ejemplo1/presupuesto_APU.xlsx
@@ -491,7 +491,7 @@
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>PARTIDA: 1.01</t>
+          <t>PARTIDA: hola</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
